--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value64.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value64.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6281607524990588</v>
+        <v>1.757063508033752</v>
       </c>
       <c r="B1">
-        <v>1.025850361464129</v>
+        <v>1.755508542060852</v>
       </c>
       <c r="C1">
-        <v>2.021104645891683</v>
+        <v>2.181628704071045</v>
       </c>
       <c r="D1">
-        <v>2.413898025018484</v>
+        <v>2.003978252410889</v>
       </c>
       <c r="E1">
-        <v>2.82450700491981</v>
+        <v>2.976402282714844</v>
       </c>
     </row>
   </sheetData>
